--- a/API-Auto/testFile/case/商品.xlsx
+++ b/API-Auto/testFile/case/商品.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="1" activeTab="8"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="商品信息列表" sheetId="1" r:id="rId1"/>
-    <sheet name="根据ID获取商品信息" sheetId="2" r:id="rId2"/>
-    <sheet name="正常商品列表" sheetId="3" r:id="rId3"/>
+    <sheet name="1商品信息列表" sheetId="1" r:id="rId1"/>
+    <sheet name="2根据ID获取商品信息" sheetId="2" r:id="rId2"/>
+    <sheet name="3正常商品列表" sheetId="3" r:id="rId3"/>
     <sheet name="根据ID获取正常商品信息" sheetId="4" r:id="rId4"/>
     <sheet name="特卖商品列表" sheetId="5" r:id="rId5"/>
     <sheet name="根据ID获取特卖商品信息" sheetId="6" r:id="rId6"/>
@@ -22,11 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="66">
   <si>
     <t>case_name</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
     <t>path</t>
   </si>
   <si>
@@ -36,10 +42,111 @@
     <t>method</t>
   </si>
   <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
     <t>url和参数都正确</t>
   </si>
   <si>
+    <t>192.168.31.93</t>
+  </si>
+  <si>
     <t>/GoodsInfo</t>
+  </si>
+  <si>
+    <t>["1"]</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": {},
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>url填写错误</t>
+  </si>
+  <si>
+    <t>/GoodsInfo111</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/GoodsInfo111"
+}</t>
+  </si>
+  <si>
+    <t>url为空</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误"
+}</t>
+  </si>
+  <si>
+    <t>id列表为1个</t>
+  </si>
+  <si>
+    <t>id列表为2个</t>
+  </si>
+  <si>
+    <t>["1","2"]</t>
+  </si>
+  <si>
+    <t>id列表为多个</t>
+  </si>
+  <si>
+    <t>["1","2","3","4","5"]</t>
+  </si>
+  <si>
+    <t>id列表为空</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>id列表为错误</t>
+  </si>
+  <si>
+    <t>["xx"]</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error: )"
+}</t>
+  </si>
+  <si>
+    <t>/GoodsInfo/1</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>/GoodsInfo/xxx</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/GoodsInfo/xxxx"
+}</t>
+  </si>
+  <si>
+    <t>/NormalGoods</t>
+  </si>
+  <si>
+    <t>/NormalGoods111</t>
   </si>
   <si>
     <t>{
@@ -47,18 +154,6 @@
 }</t>
   </si>
   <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>url填写错误</t>
-  </si>
-  <si>
-    <t>/GoodsInfo111</t>
-  </si>
-  <si>
-    <t>url为空</t>
-  </si>
-  <si>
     <t>id填写错误</t>
   </si>
   <si>
@@ -73,15 +168,6 @@
     <t>{
   "id"：""
 }</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>/NormalGoods</t>
-  </si>
-  <si>
-    <t>/NormalGoods111</t>
   </si>
   <si>
     <t>/SpecialSaleGoods</t>
@@ -194,19 +280,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +301,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -230,30 +325,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,12 +340,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -289,14 +370,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -305,18 +378,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -328,16 +393,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -352,10 +409,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -368,79 +447,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,19 +615,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,79 +627,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,6 +638,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -596,228 +738,172 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1168,99 +1254,227 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+      <selection activeCell="A1" sqref="A1:H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.625" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="1" max="3" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="26.625" customWidth="1"/>
+    <col min="5" max="5" width="27" customWidth="1"/>
+    <col min="7" max="7" width="38.625" customWidth="1"/>
+    <col min="8" max="8" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:4">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="5">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:4">
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1273,101 +1487,124 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A5" sqref="A5:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="28.875" customWidth="1"/>
-    <col min="2" max="2" width="31.75" customWidth="1"/>
-    <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="1" max="3" width="28.875" customWidth="1"/>
+    <col min="4" max="4" width="31.75" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="13.625" customWidth="1"/>
+    <col min="7" max="7" width="36" customWidth="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="89" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
+      <c r="C3" s="5">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1379,100 +1616,228 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.875" customWidth="1"/>
     <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="22.375" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="22" customWidth="1"/>
+    <col min="7" max="7" width="53.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="83" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" ht="78" customHeight="1" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+      <c r="G5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="73" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="78" customHeight="1" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="75" customHeight="1" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1504,81 +1869,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
+      <c r="A4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1609,81 +1974,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1713,81 +2078,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1818,109 +2183,109 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1951,109 +2316,109 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="54" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="54" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="54" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="54" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="54" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" ht="54" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" ht="54" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2067,7 +2432,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2083,81 +2448,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" ht="40.5" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" ht="40.5" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" ht="40.5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="40.5" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/API-Auto/testFile/case/商品.xlsx
+++ b/API-Auto/testFile/case/商品.xlsx
@@ -4,25 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="1商品信息列表" sheetId="1" r:id="rId1"/>
     <sheet name="2根据ID获取商品信息" sheetId="2" r:id="rId2"/>
     <sheet name="3正常商品列表" sheetId="3" r:id="rId3"/>
-    <sheet name="根据ID获取正常商品信息" sheetId="4" r:id="rId4"/>
-    <sheet name="特卖商品列表" sheetId="5" r:id="rId5"/>
-    <sheet name="根据ID获取特卖商品信息" sheetId="6" r:id="rId6"/>
-    <sheet name="正常商品扣减库存" sheetId="7" r:id="rId7"/>
-    <sheet name="商品列表缩略图" sheetId="8" r:id="rId8"/>
-    <sheet name="请求商品说明书" sheetId="9" r:id="rId9"/>
+    <sheet name="4根据ID获取正常商品信息" sheetId="4" r:id="rId4"/>
+    <sheet name="5特卖商品列表" sheetId="5" r:id="rId5"/>
+    <sheet name="6根据ID获取特卖商品信息" sheetId="6" r:id="rId6"/>
+    <sheet name="7正常商品扣减库存" sheetId="7" r:id="rId7"/>
+    <sheet name="8商品列表缩略图" sheetId="8" r:id="rId8"/>
+    <sheet name="9请求商品说明书" sheetId="9" r:id="rId9"/>
+    <sheet name="10商品列表阶梯价" sheetId="10" r:id="rId10"/>
+    <sheet name="11商品ID阶梯价" sheetId="11" r:id="rId11"/>
+    <sheet name="12根据商品ID和数量返回对应的阶梯价格" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="132">
   <si>
     <t>case_name</t>
   </si>
@@ -149,16 +152,61 @@
     <t>/NormalGoods111</t>
   </si>
   <si>
-    <t>{
-  "id"："1"
-}</t>
-  </si>
-  <si>
-    <t>id填写错误</t>
-  </si>
-  <si>
-    <t>{
-  "id"："xxx"
+    <t>/NormalGoods/1</t>
+  </si>
+  <si>
+    <t>/NormalGoods/xxx</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/NormalGoods/xxx"
+}</t>
+  </si>
+  <si>
+    <t>/SpecialSaleGoods</t>
+  </si>
+  <si>
+    <t>/SpecialSaleGoods111</t>
+  </si>
+  <si>
+    <t>/SpecialSaleGoods/1</t>
+  </si>
+  <si>
+    <t>/SpecialSaleGoods/xxx</t>
+  </si>
+  <si>
+    <t>/NormalGoods/quantity/</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"0",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>url为错误</t>
+  </si>
+  <si>
+    <t>/NormalGoods/quantity111/</t>
+  </si>
+  <si>
+    <t>id为错误</t>
+  </si>
+  <si>
+    <t>{
+  "id":"xxx",
+  "quantity":"2",
+  "source":"0",
+  "type":"0",
+  "uniqueId":"1"
 }</t>
   </si>
   <si>
@@ -166,64 +214,197 @@
   </si>
   <si>
     <t>{
-  "id"：""
-}</t>
-  </si>
-  <si>
-    <t>/SpecialSaleGoods</t>
-  </si>
-  <si>
-    <t>/SpecialSaleGoods111</t>
-  </si>
-  <si>
-    <t>/NormalGoods/quantity/</t>
-  </si>
-  <si>
-    <t>{
-  "goodsId"："1",
-  "num":"2"
-}</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>/NormalGoods/quantity111/</t>
-  </si>
-  <si>
-    <t>goodsId填写错误</t>
-  </si>
-  <si>
-    <t>{
-  "goodsId"："xxx",
-  "num":"2"
-}</t>
-  </si>
-  <si>
-    <t>goodsId为空</t>
-  </si>
-  <si>
-    <t>{
-  "goodsId"："",
-  "num":"2"
-}</t>
-  </si>
-  <si>
-    <t>num填写错误</t>
-  </si>
-  <si>
-    <t>{
-  "goodsId"："xxx",
-  "num":"xxxx"
-}</t>
-  </si>
-  <si>
-    <t>num为空</t>
-  </si>
-  <si>
-    <t>{
-  "goodsId"："",
-  "num":""
+  "id":"",
+  "quantity":"2",
+  "source":"0",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>quantity为错误</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"xxx",
+  "source":"0",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>quantity为空</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"",
+  "source":"0",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>source为正常商品</t>
+  </si>
+  <si>
+    <t>source为特卖商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"1",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>source为礼品商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>source为空</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>source为错误</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"xxx",
+  "type":"0",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为普通商品</t>
+  </si>
+  <si>
+    <t>type为买赠换购商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"1",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为秒杀商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"2",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为特卖商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"3",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为阶梯价商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"4",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为随机特价商品</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"5",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为错误</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"xxx",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>type为空</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"",
+  "uniqueId":"1"
+}</t>
+  </si>
+  <si>
+    <t>uniqueId为错误</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"1",
+  "uniqueId":"xxx"
+}</t>
+  </si>
+  <si>
+    <t>uniqueId为空</t>
+  </si>
+  <si>
+    <t>{
+  "id":"1",
+  "quantity":"2",
+  "source":"2",
+  "type":"1",
+  "uniqueId":""
 }</t>
   </si>
   <si>
@@ -231,48 +412,247 @@
   </si>
   <si>
     <t>{
-  "list"："1",
+  "list":["1","2"],
   "type":"0"
 }</t>
   </si>
   <si>
-    <t>/Picture/thumbnail111/</t>
-  </si>
-  <si>
-    <t>list填写错误</t>
-  </si>
-  <si>
-    <t>{
-  "list"："xxx",
+    <t>{
+    "code": "000000",
+    "content": {1: "http://images.hezongyy.com/images/no_picture.gif",
+    2:"http://images.hezongyy.com/images/201801/thumb_img/goods_2_19083759.jpg"
+    },
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>/Picture/thumbnail111</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/Picture/thumbnail111"
+}</t>
+  </si>
+  <si>
+    <t>list列表为1个</t>
+  </si>
+  <si>
+    <t>{
+  "list":["1"],
   "type":"0"
 }</t>
   </si>
   <si>
-    <t>list为空</t>
-  </si>
-  <si>
-    <t>{
-  "list"："",
+    <t>{
+    "code": "000000",
+    "content": {
+        1: "http://images.hezongyy.com/images/no_picture.gif"
+    },
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>list列表为2个</t>
+  </si>
+  <si>
+    <t>list列表为多个</t>
+  </si>
+  <si>
+    <t>{
+  "list":["1","2","3","4","5"],
   "type":"0"
 }</t>
   </si>
   <si>
-    <t>type填写错误</t>
-  </si>
-  <si>
-    <t>type为空</t>
-  </si>
-  <si>
-    <t>{
-  "list"："",
+    <t>{
+    "code": "000000",
+    "content": {
+        1: "http://images.hezongyy.com/images/no_picture.gif",
+        2: "http://images.hezongyy.com/images/201801/thumb_img/goods_2_19083759.jpg",
+        3: "http://images.hezongyy.com/images/201805/thumb_img/goods_3_17084637.jpg",
+        4: "http://images.hezongyy.com/images/201712/thumb_img/goods_4_13155457.jpg",
+        5: "http://images.hezongyy.com/images/201712/thumb_img/goods_5_15150246.jpg"
+    },
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>list列表为空</t>
+  </si>
+  <si>
+    <t>{
+  "list":[],
+  "type":"0"
+}</t>
+  </si>
+  <si>
+    <t>list列表为错误</t>
+  </si>
+  <si>
+    <t>{
+  "list":["xxxx"],
+  "type":"0"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error:"
+}</t>
+  </si>
+  <si>
+    <t>{
+  "list":["1","2"],
   "type":""
 }</t>
   </si>
   <si>
-    <t>/instruction</t>
-  </si>
-  <si>
-    <t>/instruction111</t>
+    <t>{
+    "code": "000000",
+    "content": {1: "http://images.hezongyy.com/images/no_picture.gif"},
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>/instruction/2</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": "",
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>/instruction/2333212312</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900007",
+    "content": null,
+    "message": "属性:goodsId,错误原由:Failed to convert value of type 'java.lang.String' to required type 'int'; nested exception is java.lang.NumberFormatException: For input string: \"2333212312\""
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/instruction/"
+}</t>
+  </si>
+  <si>
+    <t>url正确</t>
+  </si>
+  <si>
+    <t>/TieredPricing</t>
+  </si>
+  <si>
+    <t>url错误</t>
+  </si>
+  <si>
+    <t>/TieredPricing1111</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/TieredPricing1111"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900000",
+    "content": null,
+    "message": "系统异常"
+}</t>
+  </si>
+  <si>
+    <t>["xxxx"]</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900006",
+    "content": null,
+    "message": "JSON parse error: "
+}</t>
+  </si>
+  <si>
+    <t>/TieredPricing/2</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": [],
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>/TieredPricing/xxx</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/TieredPricing/xxxx"
+}</t>
+  </si>
+  <si>
+    <t>id正确</t>
+  </si>
+  <si>
+    <t>/TieredPricing/3/10</t>
+  </si>
+  <si>
+    <t>{
+    "code": "000000",
+    "content": -1,
+    "message": "操作成功"
+}</t>
+  </si>
+  <si>
+    <t>id错误</t>
+  </si>
+  <si>
+    <t>/TieredPricing/xx/10</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/TieredPricing/xxx/10"
+}</t>
+  </si>
+  <si>
+    <t>/TieredPricing//10</t>
+  </si>
+  <si>
+    <t>quantity正确</t>
+  </si>
+  <si>
+    <t>quantity错误</t>
+  </si>
+  <si>
+    <t>/TieredPricing/3/xx</t>
+  </si>
+  <si>
+    <t>{
+    "code": "900004",
+    "content": null,
+    "message": "URL请求地址错误/TieredPricing/3/xxx"
+}</t>
+  </si>
+  <si>
+    <t>/TieredPricing/3</t>
   </si>
 </sst>
 </file>
@@ -280,10 +660,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -294,8 +674,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,7 +699,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -318,7 +707,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,14 +734,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -346,55 +741,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,13 +758,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -425,7 +766,46 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -447,7 +827,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,73 +947,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,79 +989,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -621,13 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,17 +1021,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,11 +1045,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -683,8 +1063,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -704,6 +1084,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -718,26 +1118,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -746,10 +1126,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -758,137 +1138,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -897,14 +1277,17 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1257,7 +1640,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:H9"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1273,10 +1656,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1302,19 +1685,19 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1325,19 +1708,19 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1348,17 +1731,17 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>10000</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1369,19 +1752,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1392,19 +1775,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1415,19 +1798,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1438,19 +1821,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1461,25 +1844,556 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="18.75" customWidth="1"/>
+    <col min="2" max="2" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="17.125" customWidth="1"/>
+    <col min="7" max="7" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="7" max="7" width="53.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="69" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="67.5" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="14.375" customWidth="1"/>
+    <col min="2" max="2" width="22.75" customWidth="1"/>
+    <col min="4" max="4" width="32.125" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="88" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="67.5" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="67.5" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="67.5" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="67.5" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -1490,7 +2404,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1507,10 +2421,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1536,17 +2450,17 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1557,17 +2471,17 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1578,15 +2492,15 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>10000</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1595,7 +2509,7 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
@@ -1603,7 +2517,7 @@
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="2"/>
     </row>
   </sheetData>
@@ -1618,8 +2532,8 @@
   <sheetPr/>
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1636,10 +2550,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1665,19 +2579,19 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="7">
         <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1688,19 +2602,19 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="7">
         <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1711,17 +2625,17 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="7">
         <v>10000</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1732,19 +2646,19 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="7">
         <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1755,19 +2669,19 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="7">
         <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1778,19 +2692,19 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="7">
         <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1801,19 +2715,19 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="7">
         <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1824,19 +2738,19 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="7">
         <v>10000</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1850,100 +2764,108 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="17.125" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="1" max="2" width="17.125" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="27.375" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="39.375" customWidth="1"/>
+    <col min="8" max="8" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:4">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1955,100 +2877,228 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="18.375" customWidth="1"/>
-    <col min="2" max="2" width="25.125" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="21.75" customWidth="1"/>
+    <col min="1" max="3" width="18.375" customWidth="1"/>
+    <col min="4" max="4" width="25.125" customWidth="1"/>
+    <col min="5" max="5" width="24.375" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="7" width="43.125" customWidth="1"/>
+    <col min="8" max="8" width="25.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:4">
+        <v>39</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="67.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:4">
+        <v>38</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="67.5" spans="1:7">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
+      <c r="E6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="67.5" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2060,100 +3110,124 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D2"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="19.875" customWidth="1"/>
-    <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="20.875" customWidth="1"/>
+    <col min="1" max="2" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="32.875" customWidth="1"/>
+    <col min="5" max="5" width="20.875" customWidth="1"/>
+    <col min="7" max="7" width="35.5" customWidth="1"/>
+    <col min="8" max="8" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:4">
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="81" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:4">
+      <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2164,128 +3238,550 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D8"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="20.25" customWidth="1"/>
-    <col min="2" max="2" width="28.75" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
+    <col min="1" max="3" width="20.25" customWidth="1"/>
+    <col min="4" max="4" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="41.125" customWidth="1"/>
+    <col min="6" max="6" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="28.25" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" ht="94.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+      <c r="G4" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+      <c r="G5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" ht="54" spans="1:4">
+      <c r="G6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="94.5" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="8" ht="54" spans="1:4">
+      <c r="G7" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" ht="94.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>44</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="94.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="94.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="94.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="94.5" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="94.5" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" ht="94.5" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="94.5" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="94.5" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" ht="94.5" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" ht="94.5" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" ht="94.5" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="94.5" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="94.5" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="94.5" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="94.5" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2297,128 +3793,275 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D6"/>
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="27.875" customWidth="1"/>
-    <col min="3" max="3" width="26.625" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
+    <col min="1" max="2" width="21.375" customWidth="1"/>
+    <col min="3" max="3" width="9.25" customWidth="1"/>
+    <col min="4" max="4" width="27.875" customWidth="1"/>
+    <col min="5" max="5" width="30.125" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="89.5" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="54" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="94.5" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>55</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" ht="54" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" ht="67.5" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>55</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" ht="54" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" ht="54" spans="1:4">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" ht="94.5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>88</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7">
+        <v>10000</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="54" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" ht="94.5" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
+        <v>91</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7">
+        <v>10000</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" ht="54" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" ht="148.5" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>10000</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" ht="54" spans="1:4">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" ht="67.5" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>95</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10000</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" ht="67.5" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" ht="67.5" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" ht="67.5" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2430,100 +4073,125 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="36.375" customWidth="1"/>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="3" max="3" width="34.75" customWidth="1"/>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="14.25" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="7" max="7" width="80.375" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" ht="40.5" spans="1:4">
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="84" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>35</v>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7">
+        <v>10000</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" ht="40.5" spans="1:4">
+        <v>103</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" ht="94.5" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>35</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10000</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" ht="40.5" spans="1:4">
+        <v>105</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" ht="67.5" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" ht="40.5" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7">
+        <v>10000</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
